--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,17 +92,33 @@
   <si>
     <t>CAD Modelling</t>
   </si>
+  <si>
+    <t>15-04-2016</t>
+  </si>
+  <si>
+    <t>16-04-2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="36">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,37 +131,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFB2A1C7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92CDDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFE36C09"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF95B3D7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFD99594"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC2D69B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,37 +191,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor rgb="FF31859B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -544,15 +570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A1" workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="16.39" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" customWidth="1"/>
@@ -653,8 +680,8 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="3">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>17</v>
@@ -681,8 +708,8 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="3">
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -709,8 +736,8 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="3">
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -737,8 +764,8 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="3">
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -765,8 +792,8 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="3">
-        <v>1</v>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -837,8 +864,8 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="3">
-        <v>2</v>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>17</v>
@@ -865,8 +892,8 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="4">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>19</v>
@@ -893,8 +920,8 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="3">
-        <v>2</v>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>18</v>
@@ -921,8 +948,8 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="4">
-        <v>2</v>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -949,8 +976,8 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="3">
-        <v>2</v>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -977,8 +1004,8 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="3">
-        <v>2</v>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>19</v>
@@ -1007,8 +1034,8 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="3">
-        <v>2</v>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>8</v>
@@ -1114,25 +1141,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+</sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+</sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>